--- a/Result/01.QC/cleandata.stat.xlsx
+++ b/Result/01.QC/cleandata.stat.xlsx
@@ -462,7 +462,7 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="C2">
         <v>150</v>
@@ -488,7 +488,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="C3">
         <v>150</v>
@@ -514,7 +514,7 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>350</v>
+        <v>298</v>
       </c>
       <c r="C4">
         <v>150</v>
@@ -540,7 +540,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="C5">
         <v>150</v>
@@ -566,7 +566,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="C6">
         <v>150</v>
@@ -592,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="C7">
         <v>150</v>
@@ -618,7 +618,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="C8">
         <v>150</v>
@@ -644,7 +644,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="C9">
         <v>150</v>
@@ -670,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="C10">
         <v>150</v>
@@ -696,7 +696,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="C11">
         <v>150</v>
